--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,15 +480,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.870625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.760625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="11.810625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="9.720625" style="0" customWidth="1"/>
     <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
     <x:col min="6" max="6" width="11.850625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.870625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.810625" style="0" customWidth="1"/>
     <x:col min="8" max="8" width="3.960625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.720625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.640625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,14 +480,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.520625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="9.900625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.040625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.220625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="2.700625" style="0" customWidth="1"/>
-    <x:col min="6" max="7" width="9.040625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="2.700625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="6.460625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="10.840625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="10.290625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="10.250625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.890625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.550625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="9.330625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="3.700625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.140625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,14 +480,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="10.840625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="10.290625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="10.250625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="8.890625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.550625" style="0" customWidth="1"/>
-    <x:col min="6" max="7" width="9.330625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.700625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.140625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.870625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.100625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.330625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.380625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.080625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.100625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.600625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="9.050625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,15 +480,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="13.870625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.150625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.100625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.330625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="4.380625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.080625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.100625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="5.600625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="9.050625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="14.460625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="13.650625" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.800625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.510625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="13.630625" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="13.650625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.790625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="9.400625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,15 +480,15 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="14.460625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="13.710625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="13.650625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="11.800625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="4.510625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="13.630625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="13.650625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="5.790625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="9.400625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="13.61395" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="12.910928" style="0" customWidth="1"/>
+    <x:col min="3" max="3" width="12.860516" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="11.129147" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="4.323881" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="12.837043" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="12.860516" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="5.521159" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="8.893207" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,7 +480,7 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.780625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.570625" style="0" customWidth="1"/>
     <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
     <x:col min="3" max="3" width="11.870625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -480,15 +480,13 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.570625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="11.860625" style="0" customWidth="1"/>
-    <x:col min="3" max="3" width="11.870625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.580625" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="11.920625" style="0" customWidth="1"/>
     <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="2.900625" style="0" customWidth="1"/>
-    <x:col min="6" max="6" width="11.850625" style="0" customWidth="1"/>
-    <x:col min="7" max="7" width="11.870625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="3.960625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.720625" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="3.020625" style="0" customWidth="1"/>
+    <x:col min="6" max="7" width="11.920625" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="4.070625" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.730625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -496,23 +496,23 @@
       <x:c r="C1" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D1" s="1" t="s"/>
-      <x:c r="E1" s="1" t="s"/>
-      <x:c r="F1" s="1" t="s"/>
-      <x:c r="G1" s="1" t="s"/>
-      <x:c r="H1" s="1" t="s"/>
+      <x:c r="D1" s="1"/>
+      <x:c r="E1" s="1"/>
+      <x:c r="F1" s="1"/>
+      <x:c r="G1" s="1"/>
+      <x:c r="H1" s="1"/>
     </x:row>
     <x:row r="2" spans="1:9">
       <x:c r="A2" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="C2" s="0" t="n">
+      <x:c r="C2" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="0" t="n">
+      <x:c r="D2" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="0" t="n">
+      <x:c r="E2" s="0">
         <x:v>3</x:v>
       </x:c>
     </x:row>
@@ -520,27 +520,27 @@
       <x:c r="A3" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="C3" s="0" t="n">
+      <x:c r="C3" s="0">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:9">
-      <x:c r="C4" s="0" t="n">
+      <x:c r="C4" s="0">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D4" s="0" t="n">
+      <x:c r="D4" s="0">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E4" s="0" t="n">
+      <x:c r="E4" s="0">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F4" s="0" t="n">
+      <x:c r="F4" s="0">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G4" s="0" t="n">
+      <x:c r="G4" s="0">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="H4" s="0" t="n">
+      <x:c r="H4" s="0">
         <x:v>6</x:v>
       </x:c>
     </x:row>
@@ -548,17 +548,17 @@
       <x:c r="A6" s="1" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="B6" s="1" t="s"/>
-      <x:c r="C6" s="1" t="s"/>
-      <x:c r="D6" s="1" t="s"/>
+      <x:c r="B6" s="1"/>
+      <x:c r="C6" s="1"/>
+      <x:c r="D6" s="1"/>
       <x:c r="F6" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="G6" s="1" t="s"/>
-      <x:c r="H6" s="1" t="s"/>
+      <x:c r="G6" s="1"/>
+      <x:c r="H6" s="1"/>
     </x:row>
     <x:row r="7" spans="1:9">
-      <x:c r="A7" s="0" t="n">
+      <x:c r="A7" s="0">
         <x:v>25</x:v>
       </x:c>
       <x:c r="B7" s="0" t="s">
@@ -576,12 +576,12 @@
       <x:c r="G7" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="H7" s="0" t="n">
+      <x:c r="H7" s="0">
         <x:v>30</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="1:9">
-      <x:c r="A8" s="0" t="n">
+      <x:c r="A8" s="0">
         <x:v>50</x:v>
       </x:c>
       <x:c r="B8" s="0" t="s">
@@ -599,12 +599,12 @@
       <x:c r="G8" s="0" t="s">
         <x:v>13</x:v>
       </x:c>
-      <x:c r="H8" s="0" t="n">
+      <x:c r="H8" s="0">
         <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:9">
-      <x:c r="A9" s="0" t="n">
+      <x:c r="A9" s="0">
         <x:v>10</x:v>
       </x:c>
       <x:c r="B9" s="0" t="s">
@@ -622,12 +622,12 @@
       <x:c r="G9" s="0" t="s">
         <x:v>17</x:v>
       </x:c>
-      <x:c r="H9" s="0" t="n">
+      <x:c r="H9" s="0">
         <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="1:9">
-      <x:c r="A10" s="0" t="n">
+      <x:c r="A10" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="B10" s="0" t="s">
@@ -641,7 +641,7 @@
       </x:c>
     </x:row>
     <x:row r="11" spans="1:9">
-      <x:c r="A11" s="0" t="n">
+      <x:c r="A11" s="0">
         <x:v>100</x:v>
       </x:c>
       <x:c r="B11" s="0" t="s">
@@ -656,9 +656,9 @@
       <x:c r="F11" s="1" t="s">
         <x:v>22</x:v>
       </x:c>
-      <x:c r="G11" s="1" t="s"/>
-      <x:c r="H11" s="1" t="s"/>
-      <x:c r="I11" s="1" t="s"/>
+      <x:c r="G11" s="1"/>
+      <x:c r="H11" s="1"/>
+      <x:c r="I11" s="1"/>
     </x:row>
     <x:row r="12" spans="1:9">
       <x:c r="F12" s="0" t="s">
@@ -667,7 +667,7 @@
       <x:c r="G12" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="H12" s="0" t="n">
+      <x:c r="H12" s="0">
         <x:v>30</x:v>
       </x:c>
       <x:c r="I12" s="0" t="s">
@@ -678,15 +678,15 @@
       <x:c r="A13" s="1" t="s">
         <x:v>24</x:v>
       </x:c>
-      <x:c r="B13" s="1" t="s"/>
-      <x:c r="C13" s="1" t="s"/>
+      <x:c r="B13" s="1"/>
+      <x:c r="C13" s="1"/>
       <x:c r="F13" s="0" t="s">
         <x:v>25</x:v>
       </x:c>
       <x:c r="G13" s="0" t="s">
         <x:v>26</x:v>
       </x:c>
-      <x:c r="H13" s="0" t="n">
+      <x:c r="H13" s="0">
         <x:v>15</x:v>
       </x:c>
       <x:c r="I13" s="0" t="s">
@@ -709,7 +709,7 @@
       <x:c r="G14" s="0" t="s">
         <x:v>12</x:v>
       </x:c>
-      <x:c r="H14" s="0" t="n">
+      <x:c r="H14" s="0">
         <x:v>21</x:v>
       </x:c>
       <x:c r="I14" s="0" t="s">
@@ -732,7 +732,7 @@
       <x:c r="G15" s="0" t="s">
         <x:v>16</x:v>
       </x:c>
-      <x:c r="H15" s="0" t="n">
+      <x:c r="H15" s="0">
         <x:v>45</x:v>
       </x:c>
       <x:c r="I15" s="0" t="s">
@@ -740,13 +740,13 @@
       </x:c>
     </x:row>
     <x:row r="16" spans="1:9">
-      <x:c r="A16" s="0" t="n">
+      <x:c r="A16" s="0">
         <x:v>30</x:v>
       </x:c>
-      <x:c r="B16" s="0" t="n">
+      <x:c r="B16" s="0">
         <x:v>21</x:v>
       </x:c>
-      <x:c r="C16" s="0" t="n">
+      <x:c r="C16" s="0">
         <x:v>45</x:v>
       </x:c>
     </x:row>

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>From Strings</x:t>
   </x:si>
@@ -480,13 +480,14 @@
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
-    <x:col min="1" max="1" width="12.580625" style="0" customWidth="1"/>
-    <x:col min="2" max="3" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="4" max="4" width="9.830625" style="0" customWidth="1"/>
-    <x:col min="5" max="5" width="3.020625" style="0" customWidth="1"/>
-    <x:col min="6" max="7" width="11.920625" style="0" customWidth="1"/>
-    <x:col min="8" max="8" width="4.070625" style="0" customWidth="1"/>
-    <x:col min="9" max="9" width="7.730625" style="0" customWidth="1"/>
+    <x:col min="1" max="1" width="12.424911" style="0" customWidth="1"/>
+    <x:col min="2" max="3" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="4" max="4" width="8.996339" style="0" customWidth="1"/>
+    <x:col min="5" max="5" width="1.710625" style="0" customWidth="1"/>
+    <x:col min="6" max="6" width="11.424911" style="0" customWidth="1"/>
+    <x:col min="7" max="7" width="11.282054" style="0" customWidth="1"/>
+    <x:col min="8" max="8" width="2.996339" style="0" customWidth="1"/>
+    <x:col min="9" max="9" width="7.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:9">

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -470,7 +470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Misc/InsertingData.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Inserting Data" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Inserting Data" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames>
     <x:definedName name="Titles">'Inserting Data'!$A$1:$A$1,'Inserting Data'!$C$1:$H$1,'Inserting Data'!$A$6:$D$6,'Inserting Data'!$F$6:$H$6,'Inserting Data'!$F$11:$I$11,'Inserting Data'!$A$13:$C$13</x:definedName>
